--- a/db.xlsx
+++ b/db.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -30,6 +32,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">will</t>
     </r>
@@ -38,6 +41,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK TC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">陳威呈</t>
     </r>
@@ -51,6 +55,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK TC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圖片</t>
     </r>
@@ -59,6 +64,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -69,6 +75,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK TC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圖片</t>
     </r>
@@ -77,6 +84,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -87,6 +95,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK TC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圖片</t>
     </r>
@@ -95,6 +104,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -105,6 +115,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
@@ -113,6 +124,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK TC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圖片</t>
     </r>
@@ -121,9 +133,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">萬聖節皮卡丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.jpeg</t>
   </si>
 </sst>
 </file>
@@ -138,6 +169,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK TC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,6 +190,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,8 +235,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,45 +267,45 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -281,4 +318,102 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -139,22 +139,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">萬聖節皮卡丘</t>
+    <t xml:space="preserve">雷丘 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮卡丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.png</t>
   </si>
   <si>
     <t xml:space="preserve">1.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwww</t>
+    <t xml:space="preserve">11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">4.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.jpg</t>
   </si>
 </sst>
 </file>
@@ -271,7 +298,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -328,60 +355,94 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -406,7 +467,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="工作表3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -182,6 +183,30 @@
   </si>
   <si>
     <t xml:space="preserve">12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妙蛙種子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妙蛙草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妙蛙花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.jpeg</t>
   </si>
 </sst>
 </file>
@@ -298,7 +323,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -352,100 +377,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -461,14 +400,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="小拉達" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,11 +22,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
+    <t xml:space="preserve">雷丘 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮卡丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年紀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">圖片</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -35,8 +55,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">will</t>
-    </r>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.png</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -44,11 +75,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">陳威呈</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">年紀</t>
+      <t xml:space="preserve">圖片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
   </si>
   <si>
     <r>
@@ -67,10 +113,28 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -87,93 +151,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">4</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">雷丘 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮卡丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.png</t>
   </si>
   <si>
     <t xml:space="preserve">8.jpeg</t>
@@ -317,10 +296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,42 +308,91 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
@@ -377,14 +405,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -400,119 +513,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,19 +525,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -547,58 +551,58 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -11,6 +11,7 @@
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="小拉達" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="伊布" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -186,6 +187,30 @@
   </si>
   <si>
     <t xml:space="preserve">12.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月伊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.pug</t>
   </si>
 </sst>
 </file>
@@ -302,7 +327,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -411,7 +436,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -519,7 +544,7 @@
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -603,6 +628,110 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="小拉達" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="伊布" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="咚咚鼠" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -211,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">8.pug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咚咚鼠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -327,7 +334,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -436,7 +443,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -540,11 +547,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -648,34 +655,138 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,10 +839,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="皮卡丘" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="妙蛙種子" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="小拉達" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="伊布" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="咚咚鼠" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="果然翁" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="妙蛙種子" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="小拉達" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="伊布" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">雷丘 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮卡丘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皮丘</t>
+    <t xml:space="preserve">果然翁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">年紀</t>
@@ -61,13 +59,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.png</t>
+    <t xml:space="preserve">1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
   </si>
   <si>
     <r>
@@ -90,13 +88,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
   </si>
   <si>
     <r>
@@ -119,13 +114,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.png</t>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
   </si>
   <si>
     <r>
@@ -157,10 +149,43 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">4.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">4.jpeg</t>
+    <t xml:space="preserve">雷丘 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮卡丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮丘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.png</t>
   </si>
   <si>
     <t xml:space="preserve">12.jpg</t>
@@ -175,9 +200,6 @@
     <t xml:space="preserve">妙蛙花</t>
   </si>
   <si>
-    <t xml:space="preserve">9.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.png</t>
   </si>
   <si>
@@ -196,28 +218,16 @@
     <t xml:space="preserve">月伊布</t>
   </si>
   <si>
-    <t xml:space="preserve">5.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.gif</t>
   </si>
   <si>
     <t xml:space="preserve">2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.pug</t>
   </si>
   <si>
     <t xml:space="preserve">咚咚鼠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -328,13 +338,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -347,78 +357,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -437,31 +442,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -473,40 +478,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -514,16 +519,17 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -548,28 +554,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -583,58 +589,58 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -655,11 +661,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -671,11 +677,13 @@
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -683,62 +691,64 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -763,25 +773,129 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -791,58 +905,58 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,12 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="果然翁" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="皮卡丘" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="妙蛙種子" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="小拉達" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="伊布" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="咚咚鼠" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="耿鬼" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="果然翁" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="小拉達" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="伊布" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="咚咚鼠" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="小火龍" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,15 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">果然翁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">鬼斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鬼斯通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿鬼</t>
   </si>
   <si>
     <t xml:space="preserve">年紀</t>
@@ -88,10 +93,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2.png</t>
+    <t xml:space="preserve">2.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.jpeg</t>
   </si>
   <si>
     <r>
@@ -114,10 +122,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">3.jpeg</t>
+    <t xml:space="preserve">3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.png</t>
   </si>
   <si>
     <r>
@@ -155,6 +166,21 @@
     <t xml:space="preserve">8.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">12.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果然翁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">雷丘 </t>
   </si>
   <si>
@@ -173,21 +199,12 @@
     <t xml:space="preserve">9.png</t>
   </si>
   <si>
-    <t xml:space="preserve">2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.png</t>
   </si>
   <si>
     <t xml:space="preserve">3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">11.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.jpg</t>
   </si>
   <si>
@@ -209,9 +226,6 @@
     <t xml:space="preserve">11.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">12.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">伊布</t>
   </si>
   <si>
@@ -228,6 +242,18 @@
   </si>
   <si>
     <t xml:space="preserve">咚咚鼠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小火龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火恐龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噴火龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.png</t>
   </si>
 </sst>
 </file>
@@ -308,13 +334,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -341,89 +371,93 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -442,97 +476,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -551,31 +580,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -587,60 +616,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -662,28 +692,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -697,58 +727,58 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -770,26 +800,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -797,62 +829,64 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -874,28 +908,132 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -905,58 +1043,166 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,14 +8,15 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="耿鬼" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="果然翁" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="小拉達" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="伊布" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="咚咚鼠" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="小火龍" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="小火焰猴" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="耿鬼" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="果然翁" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="皮卡丘" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="妙蛙種子" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="小拉達" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="伊布" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="咚咚鼠" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="小火龍" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,18 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">鬼斯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鬼斯通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耿鬼</t>
+    <t xml:space="preserve">小火焰猴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猛火猴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烈焰猴</t>
   </si>
   <si>
     <t xml:space="preserve">年紀</t>
@@ -93,7 +94,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2.jpeg</t>
+    <t xml:space="preserve">2.png</t>
   </si>
   <si>
     <t xml:space="preserve">6.jpeg</t>
@@ -122,13 +123,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">3.jpg</t>
+    <t xml:space="preserve">3.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">7.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">11.png</t>
+    <t xml:space="preserve">11.jpeg</t>
   </si>
   <si>
     <r>
@@ -163,24 +164,39 @@
     <t xml:space="preserve">4.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鬼斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鬼斯通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿鬼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">12.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">果然翁</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">雷丘 </t>
   </si>
   <si>
@@ -223,9 +239,6 @@
     <t xml:space="preserve">7.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">11.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">伊布</t>
   </si>
   <si>
@@ -251,9 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve">噴火龍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.png</t>
   </si>
 </sst>
 </file>
@@ -343,12 +353,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -371,22 +381,22 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -447,7 +457,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -479,23 +489,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,8 +515,12 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -527,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,27 +555,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -580,26 +594,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,70 +621,65 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -689,26 +698,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,60 +734,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -800,23 +810,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -852,10 +862,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -866,24 +876,24 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -908,22 +918,24 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -935,20 +947,22 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,13 +970,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,27 +984,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1012,33 +1026,33 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,13 +1074,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,27 +1088,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1116,23 +1130,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,25 +1156,21 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>29</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,13 +1178,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,18 +1198,126 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
